--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T09:20:32+00:00</t>
+    <t>2023-05-29T10:57:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -655,17 +655,17 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation</t>
-  </si>
-  <si>
-    <t>simpleObservation</t>
+    <t>Observation.category:microbiology</t>
+  </si>
+  <si>
+    <t>microbiology</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.  
 必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.id</t>
+    <t>Observation.category:microbiology.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -687,7 +687,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.extension</t>
+    <t>Observation.category:microbiology.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -706,7 +706,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.coding</t>
+    <t>Observation.category:microbiology.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -737,19 +737,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.coding.id</t>
+    <t>Observation.category:microbiology.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.coding.extension</t>
+    <t>Observation.category:microbiology.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.coding.system</t>
+    <t>Observation.category:microbiology.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -779,7 +779,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.coding.version</t>
+    <t>Observation.category:microbiology.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -803,7 +803,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.coding.code</t>
+    <t>Observation.category:microbiology.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -830,7 +830,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.coding.display</t>
+    <t>Observation.category:microbiology.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -854,7 +854,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.coding.userSelected</t>
+    <t>Observation.category:microbiology.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -885,7 +885,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:simpleObservation.text</t>
+    <t>Observation.category:microbiology.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -910,6 +910,60 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc</t>
+  </si>
+  <si>
+    <t>loinc</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.id</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.coding.code</t>
+  </si>
+  <si>
+    <t>18725-2</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:loinc.text</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory</t>
+  </si>
+  <si>
+    <t>microbiologyCategory</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MicrobiologyCategory_VS</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -975,7 +1029,7 @@
 基本方針としてカテゴリに応じた標準コードの使用を想定しているが、ローカルコードを使用してもよい</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
@@ -2145,7 +2199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP81"/>
+  <dimension ref="A1:AP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2154,9 +2208,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.96484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.2578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.2734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4074,7 +4128,7 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
@@ -4774,10 +4828,10 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>83</v>
@@ -5014,10 +5068,10 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -5458,18 +5512,20 @@
         <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>83</v>
@@ -5478,22 +5534,22 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5518,13 +5574,11 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5542,13 +5596,13 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>83</v>
@@ -5557,30 +5611,30 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5695,10 +5749,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5815,10 +5869,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5850,7 +5904,7 @@
         <v>222</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>224</v>
@@ -5890,14 +5944,16 @@
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>225</v>
@@ -5935,14 +5991,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5960,23 +6014,19 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -6024,19 +6074,19 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
@@ -6045,10 +6095,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6059,23 +6109,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -6084,23 +6132,21 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -6136,19 +6182,19 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6160,7 +6206,7 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6169,10 +6215,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6183,20 +6229,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>93</v>
@@ -6211,26 +6255,26 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6248,11 +6292,13 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
@@ -6270,13 +6316,13 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
@@ -6291,10 +6337,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6305,10 +6351,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6334,17 +6380,15 @@
         <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6392,7 +6436,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6413,10 +6457,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6427,10 +6471,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6438,7 +6482,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>93</v>
@@ -6453,19 +6497,17 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6475,7 +6517,7 @@
         <v>83</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>83</v>
@@ -6514,7 +6556,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6529,19 +6571,19 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
@@ -6549,10 +6591,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6563,7 +6605,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6575,18 +6617,18 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6634,13 +6676,13 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
@@ -6655,13 +6697,13 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>83</v>
@@ -6669,18 +6711,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>93</v>
@@ -6695,19 +6737,19 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6756,7 +6798,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6771,19 +6813,19 @@
         <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>83</v>
@@ -6791,14 +6833,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6817,19 +6859,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6878,7 +6920,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6893,19 +6935,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>83</v>
@@ -6913,12 +6955,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6936,21 +6980,23 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
+        <v>194</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6974,13 +7020,11 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6998,13 +7042,13 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>83</v>
@@ -7019,13 +7063,13 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>361</v>
+        <v>200</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
@@ -7033,21 +7077,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -7059,19 +7103,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7096,13 +7140,13 @@
         <v>83</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
@@ -7120,13 +7164,13 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>83</v>
@@ -7135,30 +7179,30 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>83</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7178,23 +7222,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7242,7 +7282,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>210</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7251,47 +7291,47 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>381</v>
+        <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>382</v>
+        <v>211</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>383</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7303,20 +7343,18 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>140</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>214</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7340,43 +7378,43 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7385,10 +7423,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7399,14 +7437,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7422,22 +7460,22 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>221</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>399</v>
+        <v>224</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7462,31 +7500,29 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>394</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7504,29 +7540,31 @@
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>403</v>
+        <v>226</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>404</v>
+        <v>227</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7544,19 +7582,23 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7604,19 +7646,19 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7625,10 +7667,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7639,21 +7681,23 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D46" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7662,21 +7706,23 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7712,19 +7758,19 @@
         <v>83</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7736,7 +7782,7 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7745,10 +7791,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7759,12 +7805,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7773,7 +7821,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7794,7 +7842,7 @@
         <v>222</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>224</v>
@@ -7822,13 +7870,11 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -7881,10 +7927,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7904,19 +7950,23 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>207</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7964,7 +8014,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7976,7 +8026,7 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7985,10 +8035,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7999,21 +8049,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>83</v>
@@ -8022,21 +8072,23 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -8072,46 +8124,46 @@
         <v>83</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>211</v>
+        <v>343</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8119,10 +8171,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8133,7 +8185,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -8145,26 +8197,24 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>83</v>
@@ -8206,13 +8256,13 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>239</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
@@ -8227,13 +8277,13 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>83</v>
@@ -8241,18 +8291,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>93</v>
@@ -8267,18 +8317,20 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8326,7 +8378,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8341,19 +8393,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8361,14 +8413,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8387,17 +8439,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>113</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8446,7 +8500,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8461,19 +8515,19 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8481,10 +8535,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8507,18 +8561,18 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8566,7 +8620,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>264</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8587,13 +8641,13 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>265</v>
+        <v>378</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>83</v>
+        <v>380</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8601,10 +8655,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8615,7 +8669,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8627,19 +8681,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>269</v>
+        <v>382</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>273</v>
+        <v>386</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8688,13 +8742,13 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>274</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>83</v>
@@ -8703,19 +8757,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>276</v>
+        <v>389</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8723,10 +8777,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8749,19 +8803,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>279</v>
+        <v>393</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>280</v>
+        <v>394</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>282</v>
+        <v>396</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8810,7 +8864,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8819,7 +8873,7 @@
         <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>105</v>
@@ -8828,27 +8882,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>284</v>
+        <v>399</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8859,7 +8913,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8871,19 +8925,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8908,13 +8962,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>83</v>
+        <v>407</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>83</v>
+        <v>409</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8932,16 +8986,16 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -8953,10 +9007,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>136</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8967,21 +9021,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>83</v>
+        <v>413</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
@@ -8996,15 +9050,17 @@
         <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9028,13 +9084,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>292</v>
+        <v>407</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9052,13 +9108,13 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
@@ -9070,27 +9126,27 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9113,20 +9169,16 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>428</v>
+        <v>208</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -9150,13 +9202,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9174,7 +9226,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>437</v>
+        <v>210</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9186,7 +9238,7 @@
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -9195,10 +9247,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>444</v>
+        <v>211</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9209,21 +9261,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
@@ -9235,16 +9287,16 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>446</v>
+        <v>139</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>447</v>
+        <v>140</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>448</v>
+        <v>214</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>449</v>
+        <v>142</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9282,57 +9334,57 @@
         <v>83</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>445</v>
+        <v>217</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>450</v>
+        <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>451</v>
+        <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>452</v>
+        <v>211</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>453</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9343,7 +9395,7 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9352,21 +9404,23 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>221</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>222</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9414,13 +9468,13 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>225</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>83</v>
@@ -9432,27 +9486,27 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>460</v>
+        <v>226</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>227</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9463,7 +9517,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>83</v>
@@ -9475,20 +9529,16 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>464</v>
+        <v>207</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>208</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9536,19 +9586,19 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>210</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
@@ -9557,10 +9607,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>470</v>
+        <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>471</v>
+        <v>211</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9571,21 +9621,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9597,15 +9647,17 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9642,31 +9694,31 @@
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -9689,21 +9741,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>83</v>
@@ -9712,27 +9764,29 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>83</v>
@@ -9774,19 +9828,19 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
@@ -9795,10 +9849,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9809,46 +9863,44 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>476</v>
+        <v>244</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>477</v>
+        <v>245</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
@@ -9896,19 +9948,19 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>478</v>
+        <v>247</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -9917,10 +9969,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9931,10 +9983,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9954,19 +10006,21 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>480</v>
+        <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>481</v>
+        <v>252</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>482</v>
+        <v>253</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10014,7 +10068,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>479</v>
+        <v>256</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10023,7 +10077,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>483</v>
+        <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10035,10 +10089,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>484</v>
+        <v>257</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>485</v>
+        <v>258</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10049,10 +10103,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10072,19 +10126,21 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>480</v>
+        <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>487</v>
+        <v>261</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>488</v>
+        <v>262</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10132,7 +10188,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10141,7 +10197,7 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>483</v>
+        <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>105</v>
@@ -10153,10 +10209,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>484</v>
+        <v>265</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>489</v>
+        <v>266</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10167,10 +10223,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10190,22 +10246,22 @@
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>491</v>
+        <v>270</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>492</v>
+        <v>271</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>493</v>
+        <v>272</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>494</v>
+        <v>273</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10230,13 +10286,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>496</v>
+        <v>83</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10254,7 +10310,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>490</v>
+        <v>274</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10272,13 +10328,13 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>498</v>
+        <v>275</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>404</v>
+        <v>276</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10289,10 +10345,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>499</v>
+        <v>436</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10303,7 +10359,7 @@
         <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>83</v>
@@ -10312,22 +10368,22 @@
         <v>83</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>501</v>
+        <v>280</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10352,13 +10408,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>504</v>
+        <v>83</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10376,13 +10432,13 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>499</v>
+        <v>283</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>83</v>
@@ -10394,13 +10450,13 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>498</v>
+        <v>284</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>404</v>
+        <v>285</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10411,10 +10467,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10425,7 +10481,7 @@
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>83</v>
@@ -10437,17 +10493,19 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>507</v>
+        <v>438</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>510</v>
+        <v>442</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10496,13 +10554,13 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>83</v>
@@ -10517,10 +10575,10 @@
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10531,10 +10589,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10557,15 +10615,17 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10590,13 +10650,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10614,7 +10674,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10632,27 +10692,27 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>83</v>
+        <v>451</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>83</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10663,7 +10723,7 @@
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>83</v>
@@ -10672,21 +10732,23 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>517</v>
+        <v>192</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>518</v>
+        <v>446</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>519</v>
+        <v>456</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
       </c>
@@ -10710,13 +10772,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>83</v>
+        <v>459</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>83</v>
+        <v>460</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10734,13 +10796,13 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>83</v>
@@ -10755,10 +10817,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -10769,10 +10831,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10783,7 +10845,7 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
@@ -10792,19 +10854,19 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>524</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10854,13 +10916,13 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
@@ -10872,27 +10934,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>521</v>
+        <v>469</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>528</v>
+        <v>470</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>83</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10903,7 +10965,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
@@ -10912,23 +10974,21 @@
         <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
@@ -10976,13 +11036,13 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
@@ -10994,27 +11054,27 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11025,7 +11085,7 @@
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>83</v>
@@ -11037,16 +11097,20 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>207</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>208</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
       </c>
@@ -11094,19 +11158,19 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>210</v>
+        <v>481</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11115,10 +11179,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>83</v>
+        <v>488</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>211</v>
+        <v>489</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11129,21 +11193,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>83</v>
@@ -11155,17 +11219,15 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11214,19 +11276,19 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -11249,14 +11311,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>475</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11269,26 +11331,24 @@
         <v>83</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>476</v>
+        <v>140</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>477</v>
+        <v>214</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O76" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>83</v>
       </c>
@@ -11336,7 +11396,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>478</v>
+        <v>217</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11360,7 +11420,7 @@
         <v>83</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11371,45 +11431,45 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>539</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>539</v>
+        <v>492</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>542</v>
+        <v>142</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>291</v>
+        <v>148</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11434,13 +11494,13 @@
         <v>83</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -11458,34 +11518,34 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>543</v>
+        <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>298</v>
+        <v>136</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>83</v>
@@ -11493,10 +11553,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11516,23 +11576,19 @@
         <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>545</v>
+        <v>498</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>546</v>
+        <v>499</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>83</v>
       </c>
@@ -11580,7 +11636,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11589,7 +11645,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11598,27 +11654,27 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>549</v>
+        <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>383</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11641,20 +11697,16 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>83</v>
       </c>
@@ -11678,13 +11730,13 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11702,7 +11754,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11711,7 +11763,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>392</v>
+        <v>501</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -11723,10 +11775,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>393</v>
+        <v>507</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11737,21 +11789,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>83</v>
@@ -11766,16 +11818,16 @@
         <v>192</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -11800,13 +11852,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>389</v>
+        <v>117</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>400</v>
+        <v>513</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>401</v>
+        <v>514</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -11824,13 +11876,13 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>83</v>
@@ -11842,27 +11894,27 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>402</v>
+        <v>515</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>403</v>
+        <v>516</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11885,19 +11937,19 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>562</v>
+        <v>521</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -11922,13 +11974,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>83</v>
+        <v>522</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>83</v>
+        <v>523</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -11946,7 +11998,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -11964,18 +12016,1588 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>83</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T10:57:35+00:00</t>
+    <t>2023-05-29T12:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T12:01:10+00:00</t>
+    <t>2023-05-29T23:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T23:20:38+00:00</t>
+    <t>2023-06-03T11:22:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはObservationリソースに対して、細菌検査のデータを送受信するための制約と拡張を定めたものである。</t>
+    <t>このプロファイルはObservationリソースに対して、微生物学検査のデータを送受信するための制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -488,11 +488,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation　Observationのためのビジネス識別子</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.
-このObservationリソースの一意な識別ID。</t>
+    <t>このObservationリソースの一意な識別ID。</t>
   </si>
   <si>
     <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
@@ -521,11 +517,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order　実施されるプラン、提案、依頼</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.
-このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -556,11 +548,10 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event　参照されるイベントの一部分</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -579,10 +570,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>登録|予備|ファイナル|修正 + / registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.　結果の状態。</t>
+    <t>結果の状態。【詳細参照】</t>
+  </si>
+  <si>
+    <t>結果の状態。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
@@ -623,11 +614,10 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.
-このObservationを分類するコード。</t>
+    <t>このObservationを分類するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationを分類するコード。</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
@@ -973,11 +963,10 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)　observation のタイプ（コードまたはタイプ）</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".
-このObservationの対象を特定するコード。</t>
+    <t>このObservationの対象を特定するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象を特定するコード。</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
@@ -1082,11 +1071,10 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about　観察対象者</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.
-このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
@@ -1116,11 +1104,10 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
-配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
@@ -1141,16 +1128,14 @@
 </t>
   </si>
   <si>
-    <t>Healthcare event during which this observation is made　このobservationが行われるヘルスケアイベント</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
-このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダの相互作用など）（受診、入院など）。</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP Core仕様】
-診察（Encounterリソース）</t>
+通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
   </si>
   <si>
     <t>一部の観察では、観察と特定のEncounterの間のリンクを知ることが重要かもしれません。 / For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -1179,11 +1164,10 @@
 Period</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation　臨床的に関連する時刻または時間</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.
-観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
+  </si>
+  <si>
+    <t>取得された結果が臨床的に確定された日時または期間。</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
@@ -1213,11 +1197,10 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available　このバージョンが利用可能となった日時</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.
-このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証された後となる。</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。</t>
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
@@ -1240,11 +1223,10 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation　observationに責任をもつ者</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".
-そのobservationは真だと言える責任者</t>
+    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの責任者/実施者に関する情報。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -1273,11 +1255,7 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>Actual result　実際の結果値</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.
-結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
+    <t>取得された結果。</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
@@ -1309,11 +1287,10 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing　結果が欠損値である理由</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.
-Observation.value[x] 要素に期待される結果が存在しない理由を設定する。</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
@@ -1347,11 +1324,10 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常など。 / High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.
-観測値のカテゴリ別評価。たとえば、高、低、通常。</t>
+    <t>高、低、正常等の結果のカテゴリ分けした評価。【詳細参照】</t>
+  </si>
+  <si>
+    <t>高、低、正常等の結果のカテゴリ分けした評価。</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
@@ -1428,11 +1404,10 @@
 </t>
   </si>
   <si>
-    <t>Comments about the observation　結果に対するコメント</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.
-観測値、結果に対するコメント</t>
+    <t>このObservationに関するコメント。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関するコメント。</t>
   </si>
   <si>
     <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
@@ -1452,10 +1427,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
-  </si>
-  <si>
-    <t>観察が行われた被験者の本体のサイト（つまり、ターゲットサイト）を示します。 / Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+    <t>対象となった身体部位。</t>
   </si>
   <si>
     <t>観察結果で見つかったコードで暗黙的ではない場合にのみ使用されます。多くのシステムでは、これはインラインコンポーネントの代わりに関連する観察として表される場合があります。
@@ -1484,7 +1456,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>観察を実行するために使用されるメカニズムを示します。 / Indicates the mechanism used to perform the observation.</t>
+    <t>このObservationの実施方法。</t>
   </si>
   <si>
     <t>CODERATION.CODEのコードに暗黙的ではない場合にのみ使用されます。 / Only used if not implicit in code for Observation.code.</t>
@@ -1512,11 +1484,10 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation　観察（観測、検査）に使われた検体材料</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.
-この観察（観測、検査）が実施されたときに使われた検体材料</t>
+    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに使われた検体/標本に関する情報。</t>
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
@@ -1542,11 +1513,10 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device　測定機器</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.
-観察データを生成するために使われた機器</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報。</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
@@ -1572,10 +1542,10 @@
 </t>
   </si>
   <si>
-    <t>Provides guide for interpretation　解釈のためのガイドを与える</t>
-  </si>
-  <si>
-    <t>通常または推奨範囲と比較して、値を解釈する方法に関するガイダンス。複数の参照範囲は「または」として解釈されます。言い換えれば、2つの異なるターゲット集団を表すために、2つの「参照」要素が使用されます。 / Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
+  </si>
+  <si>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス。</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
@@ -1747,11 +1717,10 @@
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group　observationグループに属する関連リソース</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1772,11 +1741,10 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
-  </si>
-  <si>
-    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
-このobservation が導出される元の測定値を表すターゲットリソース。たとえば、超音波画像に基づいて計算されたアニオンギャップまたは胎児の測定値の場合、この要素には、元となった超音波画像検査結果への参照を設定する。</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
@@ -1789,11 +1757,10 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results　　コンポーネント結果</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.
-一部の観測には、複数のコンポーネントの観測がある。これらのコンポーネントの観察結果は、同じ属性を共有する個別のコード値のペアとして表される。例としては、血圧測定のための収縮期および拡張期のコンポーネントの観察や、遺伝学の観察のための複数のコンポーネントの観察がある。</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
+  </si>
+  <si>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
@@ -1869,6 +1836,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>高、低、正常など。 / High, low, normal, etc.</t>
   </si>
   <si>
     <t>観測値のカテゴリー評価。たとえば、高、低、正常。 / A categorical assessment of an observation value.  For example, high, low, normal.</t>
@@ -3493,11 +3463,11 @@
         <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>83</v>
@@ -3561,19 +3531,19 @@
         <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
@@ -3581,14 +3551,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3607,19 +3577,19 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3668,7 +3638,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3683,16 +3653,16 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>83</v>
@@ -3703,14 +3673,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3729,16 +3699,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3788,7 +3758,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3803,16 +3773,16 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3823,10 +3793,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3852,16 +3822,16 @@
         <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3886,14 +3856,14 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
       </c>
@@ -3910,7 +3880,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>93</v>
@@ -3925,19 +3895,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
@@ -3945,10 +3915,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3971,19 +3941,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -4012,23 +3982,23 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -4052,10 +4022,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -4063,13 +4033,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -4091,19 +4061,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -4128,11 +4098,11 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -4150,7 +4120,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4174,10 +4144,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -4185,10 +4155,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4211,13 +4181,13 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4268,7 +4238,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4292,7 +4262,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4303,10 +4273,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4335,7 +4305,7 @@
         <v>140</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>142</v>
@@ -4376,19 +4346,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4412,7 +4382,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4423,10 +4393,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4449,19 +4419,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4510,7 +4480,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4531,10 +4501,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4545,10 +4515,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4571,13 +4541,13 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4628,7 +4598,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4652,7 +4622,7 @@
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4663,10 +4633,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4695,7 +4665,7 @@
         <v>140</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>142</v>
@@ -4736,19 +4706,19 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4772,7 +4742,7 @@
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4783,10 +4753,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4812,23 +4782,23 @@
         <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4870,7 +4840,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4891,10 +4861,10 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -4905,10 +4875,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4931,16 +4901,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4990,7 +4960,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5011,10 +4981,10 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -5025,10 +4995,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5054,21 +5024,21 @@
         <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>83</v>
@@ -5110,7 +5080,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -5131,10 +5101,10 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -5145,10 +5115,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5171,17 +5141,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5230,7 +5200,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5251,10 +5221,10 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5265,10 +5235,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5291,19 +5261,19 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5352,7 +5322,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5373,10 +5343,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5387,10 +5357,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5413,19 +5383,19 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5474,7 +5444,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5495,10 +5465,10 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5509,13 +5479,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
@@ -5537,19 +5507,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5578,7 +5548,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5596,7 +5566,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5620,10 +5590,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5631,10 +5601,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5657,13 +5627,13 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5714,7 +5684,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5738,7 +5708,7 @@
         <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5749,10 +5719,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5781,7 +5751,7 @@
         <v>140</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>142</v>
@@ -5822,19 +5792,19 @@
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5858,7 +5828,7 @@
         <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5869,10 +5839,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5895,19 +5865,19 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5956,7 +5926,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5977,10 +5947,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5991,10 +5961,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6017,13 +5987,13 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6074,7 +6044,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6098,7 +6068,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6109,10 +6079,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6141,7 +6111,7 @@
         <v>140</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>142</v>
@@ -6182,19 +6152,19 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6218,7 +6188,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6229,10 +6199,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6258,23 +6228,23 @@
         <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6316,7 +6286,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6337,10 +6307,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6351,10 +6321,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6377,16 +6347,16 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6436,7 +6406,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6457,10 +6427,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6471,10 +6441,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6500,14 +6470,14 @@
         <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6517,7 +6487,7 @@
         <v>83</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>83</v>
@@ -6556,7 +6526,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6577,10 +6547,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6591,10 +6561,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6617,17 +6587,17 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6676,7 +6646,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6697,10 +6667,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6711,10 +6681,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6737,19 +6707,19 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6798,7 +6768,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6819,10 +6789,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6833,10 +6803,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6859,19 +6829,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6920,7 +6890,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6941,10 +6911,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6955,13 +6925,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>83</v>
@@ -6983,19 +6953,19 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -7020,11 +6990,11 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -7042,7 +7012,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7066,10 +7036,10 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
@@ -7077,14 +7047,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7103,19 +7073,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7140,14 +7110,14 @@
         <v>83</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
       </c>
@@ -7164,7 +7134,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>93</v>
@@ -7179,30 +7149,30 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7225,13 +7195,13 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7282,7 +7252,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7306,7 +7276,7 @@
         <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7317,10 +7287,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7349,7 +7319,7 @@
         <v>140</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>142</v>
@@ -7390,19 +7360,19 @@
         <v>83</v>
       </c>
       <c r="AB43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7426,7 +7396,7 @@
         <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7437,10 +7407,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7463,19 +7433,19 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7512,17 +7482,17 @@
         <v>83</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7543,10 +7513,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7557,13 +7527,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>83</v>
@@ -7585,19 +7555,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7646,7 +7616,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7667,10 +7637,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7681,13 +7651,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>83</v>
@@ -7709,19 +7679,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7770,7 +7740,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7791,10 +7761,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7805,13 +7775,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>83</v>
@@ -7833,19 +7803,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7870,11 +7840,11 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -7892,7 +7862,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7913,10 +7883,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7927,10 +7897,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7953,19 +7923,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8014,7 +7984,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8035,10 +8005,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8049,10 +8019,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8060,7 +8030,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
@@ -8075,19 +8045,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8136,7 +8106,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8151,19 +8121,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8171,10 +8141,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8197,16 +8167,16 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8256,7 +8226,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8277,13 +8247,13 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>83</v>
@@ -8291,18 +8261,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>93</v>
@@ -8317,19 +8287,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8378,7 +8348,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8393,19 +8363,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8413,14 +8383,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8439,19 +8409,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8500,7 +8470,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8515,19 +8485,19 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8535,10 +8505,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8561,16 +8531,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8620,7 +8590,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8641,13 +8611,13 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8655,10 +8625,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8681,19 +8651,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8742,7 +8712,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8757,19 +8727,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8777,10 +8747,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8803,19 +8773,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8864,7 +8834,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8873,7 +8843,7 @@
         <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>105</v>
@@ -8882,27 +8852,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>401</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8925,19 +8895,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8962,13 +8932,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8986,7 +8956,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8995,7 +8965,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -9010,7 +8980,7 @@
         <v>136</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9021,14 +8991,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9047,19 +9017,19 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9084,13 +9054,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9108,7 +9078,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9126,27 +9096,27 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9169,13 +9139,13 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9226,7 +9196,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9250,7 +9220,7 @@
         <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9261,10 +9231,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9293,7 +9263,7 @@
         <v>140</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>142</v>
@@ -9334,19 +9304,19 @@
         <v>83</v>
       </c>
       <c r="AB59" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9370,7 +9340,7 @@
         <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9381,10 +9351,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9407,19 +9377,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9468,7 +9438,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9489,10 +9459,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9503,10 +9473,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9529,13 +9499,13 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9586,7 +9556,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9610,7 +9580,7 @@
         <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9621,10 +9591,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9653,7 +9623,7 @@
         <v>140</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>142</v>
@@ -9694,19 +9664,19 @@
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9730,7 +9700,7 @@
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9741,10 +9711,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9770,23 +9740,23 @@
         <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>83</v>
@@ -9828,7 +9798,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9849,10 +9819,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9863,10 +9833,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9889,16 +9859,16 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9948,7 +9918,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9969,10 +9939,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9983,10 +9953,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10012,14 +9982,14 @@
         <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10068,7 +10038,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10089,10 +10059,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10103,10 +10073,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10129,17 +10099,17 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10188,7 +10158,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10209,10 +10179,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10223,10 +10193,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10249,19 +10219,19 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10310,7 +10280,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10331,10 +10301,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10345,10 +10315,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10371,19 +10341,19 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10432,7 +10402,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10453,10 +10423,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10467,10 +10437,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10493,19 +10463,19 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10554,7 +10524,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10575,10 +10545,10 @@
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10589,10 +10559,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10615,16 +10585,16 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10650,13 +10620,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10674,7 +10644,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10692,27 +10662,27 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10735,19 +10705,19 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10772,13 +10742,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10796,7 +10766,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10817,10 +10787,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -10831,10 +10801,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10857,16 +10827,16 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10916,7 +10886,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10934,27 +10904,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10977,16 +10947,16 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11036,7 +11006,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11054,27 +11024,27 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11097,19 +11067,19 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11158,7 +11128,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11170,7 +11140,7 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11179,10 +11149,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11193,10 +11163,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11219,13 +11189,13 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11276,7 +11246,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11300,7 +11270,7 @@
         <v>83</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11311,10 +11281,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11343,7 +11313,7 @@
         <v>140</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>142</v>
@@ -11396,7 +11366,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11420,7 +11390,7 @@
         <v>83</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11431,14 +11401,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11460,10 +11430,10 @@
         <v>139</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>142</v>
@@ -11518,7 +11488,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11553,10 +11523,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11579,13 +11549,13 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11636,7 +11606,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11645,7 +11615,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11657,10 +11627,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11671,10 +11641,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11697,13 +11667,13 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11754,7 +11724,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11763,7 +11733,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -11775,10 +11745,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11789,10 +11759,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11815,19 +11785,19 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -11855,10 +11825,10 @@
         <v>117</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -11876,7 +11846,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11894,13 +11864,13 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -11911,10 +11881,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11937,19 +11907,19 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -11974,13 +11944,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -11998,7 +11968,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12016,13 +11986,13 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12033,10 +12003,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12059,17 +12029,17 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12118,7 +12088,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12142,7 +12112,7 @@
         <v>83</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12153,10 +12123,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12179,13 +12149,13 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12236,7 +12206,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12257,10 +12227,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12271,10 +12241,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12297,16 +12267,16 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12356,7 +12326,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12377,10 +12347,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12391,10 +12361,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12417,16 +12387,16 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12476,7 +12446,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12497,10 +12467,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12511,10 +12481,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12537,19 +12507,19 @@
         <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12598,7 +12568,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12619,10 +12589,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12633,10 +12603,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12659,13 +12629,13 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12716,7 +12686,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12740,7 +12710,7 @@
         <v>83</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12751,10 +12721,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12783,7 +12753,7 @@
         <v>140</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>142</v>
@@ -12836,7 +12806,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12860,7 +12830,7 @@
         <v>83</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12871,14 +12841,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12900,10 +12870,10 @@
         <v>139</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>142</v>
@@ -12958,7 +12928,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12993,10 +12963,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13019,19 +12989,19 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13056,14 +13026,14 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13080,7 +13050,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>93</v>
@@ -13098,16 +13068,16 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>83</v>
@@ -13115,10 +13085,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13141,19 +13111,19 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13202,7 +13172,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13220,27 +13190,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13263,19 +13233,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13300,13 +13270,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13324,7 +13294,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13333,7 +13303,7 @@
         <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>105</v>
@@ -13348,7 +13318,7 @@
         <v>136</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13359,14 +13329,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13385,19 +13355,19 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>414</v>
+        <v>569</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13422,13 +13392,13 @@
         <v>83</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>83</v>
@@ -13446,7 +13416,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13464,27 +13434,27 @@
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13510,16 +13480,16 @@
         <v>84</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O94" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>83</v>
@@ -13568,7 +13538,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13589,10 +13559,10 @@
         <v>83</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T11:22:46+00:00</t>
+    <t>2023-06-03T11:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T11:50:31+00:00</t>
+    <t>2023-06-03T12:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -956,6 +956,42 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MicrobiologyCategory_VS</t>
   </si>
   <si>
+    <t>Observation.category:microbiologyCategory.id</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.coding.system</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MicrobiologyCategory_CS</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiologyCategory.text</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -1022,30 +1058,6 @@
 </t>
   </si>
   <si>
-    <t>Observation.code.coding:infectious-agent</t>
-  </si>
-  <si>
-    <t>infectious-agent</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】
-同定菌名を表現する場合に使用する
-NeXEHRSで使用を定める標準コードに準じて、JANIS菌名コードを採用する</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:antimicrobial-drug</t>
-  </si>
-  <si>
-    <t>antimicrobial-drug</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】
-抗菌薬コードを表現する場合に使用する
-NeXEHRSで使用を定める標準コードに準じて、JANIS抗菌薬コードを採用する</t>
-  </si>
-  <si>
     <t>Observation.code.coding:jlac10</t>
   </si>
   <si>
@@ -1059,6 +1071,51 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:jlac10.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:jlac10.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:jlac10.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200119.4.504</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:jlac10.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:jlac10.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:jlac10.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:jlac10.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1355,46 +1412,6 @@
   </si>
   <si>
     <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.id</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.extension</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.system</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】
-[FHIR仕様](http://hl7.org/fhir/v3/ObservationInterpretation/cs.html)で定義されているコード体系を採用</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.text</t>
   </si>
   <si>
     <t>Observation.note</t>
@@ -2169,7 +2186,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP94"/>
+  <dimension ref="A1:AP99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2178,8 +2195,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.2734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -6484,10 +6501,10 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>83</v>
@@ -7050,15 +7067,15 @@
         <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>93</v>
@@ -7070,23 +7087,19 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
       </c>
@@ -7110,13 +7123,13 @@
         <v>83</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
@@ -7134,10 +7147,10 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>93</v>
@@ -7146,44 +7159,44 @@
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7195,15 +7208,17 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7240,31 +7255,31 @@
         <v>83</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7287,14 +7302,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7310,21 +7325,23 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7360,19 +7377,19 @@
         <v>83</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7384,7 +7401,7 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7393,10 +7410,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7407,10 +7424,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7421,7 +7438,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7430,23 +7447,19 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7482,29 +7495,31 @@
         <v>83</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7513,10 +7528,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7527,23 +7542,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7552,23 +7565,21 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7604,19 +7615,19 @@
         <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7628,7 +7639,7 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7637,10 +7648,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7651,20 +7662,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>93</v>
@@ -7679,26 +7688,26 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>83</v>
@@ -7740,13 +7749,13 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
@@ -7761,10 +7770,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7775,14 +7784,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7803,20 +7810,18 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7840,11 +7845,13 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -7862,13 +7869,13 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
@@ -7883,10 +7890,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7897,10 +7904,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7923,19 +7930,17 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7984,7 +7989,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8005,10 +8010,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8019,10 +8024,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8045,19 +8050,17 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8106,7 +8109,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8121,19 +8124,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8141,10 +8144,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8155,7 +8158,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -8167,18 +8170,20 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8226,13 +8231,13 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
@@ -8247,13 +8252,13 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>83</v>
@@ -8261,14 +8266,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8287,19 +8292,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8348,7 +8353,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8363,19 +8368,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>357</v>
+        <v>282</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8383,18 +8388,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>93</v>
@@ -8409,19 +8414,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>362</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8446,13 +8451,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8470,10 +8475,10 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>93</v>
@@ -8485,30 +8490,30 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>83</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8528,20 +8533,18 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>205</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>206</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8590,7 +8593,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8602,7 +8605,7 @@
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>83</v>
@@ -8611,13 +8614,13 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>377</v>
+        <v>209</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8625,14 +8628,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8648,23 +8651,21 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>140</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8700,19 +8701,19 @@
         <v>83</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8724,22 +8725,22 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>388</v>
+        <v>83</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8747,10 +8748,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8761,7 +8762,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8773,19 +8774,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>390</v>
+        <v>218</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>219</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>391</v>
+        <v>220</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>393</v>
+        <v>222</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8822,28 +8823,26 @@
         <v>83</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>223</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>105</v>
@@ -8852,29 +8851,31 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>396</v>
+        <v>224</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>398</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8892,22 +8893,22 @@
         <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>400</v>
+        <v>219</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>401</v>
+        <v>220</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>403</v>
+        <v>222</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8932,13 +8933,11 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8956,16 +8955,16 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>399</v>
+        <v>223</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -8977,10 +8976,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>408</v>
+        <v>225</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8991,21 +8990,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>410</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
@@ -9017,20 +9016,16 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>206</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9054,13 +9049,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9078,56 +9073,56 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>409</v>
+        <v>208</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>418</v>
+        <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -9139,15 +9134,17 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9184,31 +9181,31 @@
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -9231,21 +9228,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
@@ -9254,27 +9251,29 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>83</v>
@@ -9304,31 +9303,31 @@
         <v>83</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
@@ -9337,10 +9336,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9351,10 +9350,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>423</v>
+        <v>346</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9365,7 +9364,7 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9377,20 +9376,18 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9438,13 +9435,13 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>83</v>
@@ -9459,10 +9456,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9473,10 +9470,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9496,19 +9493,21 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9568,7 +9567,7 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
@@ -9577,10 +9576,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9591,21 +9590,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9614,21 +9613,21 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9664,31 +9663,31 @@
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -9697,10 +9696,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9711,10 +9710,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9737,26 +9736,26 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>427</v>
+        <v>270</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>428</v>
+        <v>83</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>83</v>
@@ -9798,7 +9797,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9819,10 +9818,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9833,10 +9832,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9862,15 +9861,17 @@
         <v>205</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9939,10 +9940,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9953,10 +9954,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>430</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9979,17 +9980,19 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10038,7 +10041,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10053,19 +10056,19 @@
         <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>255</v>
+        <v>361</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10073,10 +10076,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10087,7 +10090,7 @@
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>83</v>
@@ -10099,18 +10102,18 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>205</v>
+        <v>365</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>259</v>
+        <v>366</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10158,13 +10161,13 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>262</v>
+        <v>364</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>83</v>
@@ -10179,13 +10182,13 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>83</v>
@@ -10193,14 +10196,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10219,19 +10222,19 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>267</v>
+        <v>372</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10280,7 +10283,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10295,19 +10298,19 @@
         <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>273</v>
+        <v>378</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>83</v>
+        <v>380</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
@@ -10315,14 +10318,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10341,19 +10344,19 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>278</v>
+        <v>385</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>279</v>
+        <v>386</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10402,7 +10405,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10417,19 +10420,19 @@
         <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>83</v>
@@ -10437,10 +10440,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10451,7 +10454,7 @@
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>83</v>
@@ -10460,23 +10463,21 @@
         <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10524,13 +10525,13 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>83</v>
@@ -10545,13 +10546,13 @@
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>83</v>
@@ -10559,10 +10560,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10573,7 +10574,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10582,21 +10583,23 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10620,13 +10623,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>446</v>
+        <v>83</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10644,13 +10647,13 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>83</v>
@@ -10659,30 +10662,30 @@
         <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>83</v>
+        <v>409</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>450</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10702,22 +10705,22 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>190</v>
+        <v>411</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10742,13 +10745,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>455</v>
+        <v>83</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>456</v>
+        <v>83</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10766,7 +10769,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10775,7 +10778,7 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10784,27 +10787,27 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>83</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10827,18 +10830,20 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
       </c>
@@ -10862,13 +10867,13 @@
         <v>83</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>83</v>
+        <v>426</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -10886,7 +10891,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10895,7 +10900,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -10904,38 +10909,38 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>464</v>
+        <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>465</v>
+        <v>136</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>467</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
@@ -10947,18 +10952,20 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>469</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
@@ -10982,13 +10989,13 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
@@ -11006,13 +11013,13 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
@@ -11024,27 +11031,27 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>476</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11067,19 +11074,19 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11128,7 +11135,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11140,7 +11147,7 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>483</v>
+        <v>105</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11149,10 +11156,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11163,10 +11170,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11189,15 +11196,17 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>206</v>
+        <v>451</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11222,13 +11231,13 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11246,7 +11255,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>208</v>
+        <v>450</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11258,44 +11267,44 @@
         <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>209</v>
+        <v>457</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>83</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>83</v>
@@ -11307,18 +11316,20 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>140</v>
+        <v>460</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>212</v>
+        <v>460</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
       </c>
@@ -11342,13 +11353,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>83</v>
+        <v>463</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -11366,19 +11377,19 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>215</v>
+        <v>459</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>83</v>
@@ -11387,10 +11398,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>83</v>
+        <v>465</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>209</v>
+        <v>466</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11401,46 +11412,44 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>139</v>
+        <v>468</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>83</v>
       </c>
@@ -11488,45 +11497,45 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>83</v>
+        <v>473</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>136</v>
+        <v>474</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>83</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11549,15 +11558,17 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11606,7 +11617,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11615,7 +11626,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11624,27 +11635,27 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>83</v>
+        <v>481</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>83</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11655,7 +11666,7 @@
         <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>83</v>
@@ -11667,16 +11678,20 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
       </c>
@@ -11724,19 +11739,19 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>105</v>
+        <v>491</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
@@ -11745,10 +11760,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11759,10 +11774,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11785,20 +11800,16 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>505</v>
+        <v>206</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>83</v>
       </c>
@@ -11822,13 +11833,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>509</v>
+        <v>83</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>510</v>
+        <v>83</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -11846,7 +11857,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>504</v>
+        <v>208</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11858,19 +11869,19 @@
         <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>511</v>
+        <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>512</v>
+        <v>83</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -11881,14 +11892,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11907,20 +11918,18 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>514</v>
+        <v>140</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>515</v>
+        <v>212</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -11944,13 +11953,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>518</v>
+        <v>83</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -11968,7 +11977,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>513</v>
+        <v>215</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -11980,19 +11989,19 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>511</v>
+        <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>512</v>
+        <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12003,43 +12012,45 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>521</v>
+        <v>139</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O82" t="s" s="2">
-        <v>524</v>
+        <v>148</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12088,19 +12099,19 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>83</v>
@@ -12112,7 +12123,7 @@
         <v>83</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>525</v>
+        <v>136</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12123,10 +12134,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12149,13 +12160,13 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>205</v>
+        <v>502</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12206,7 +12217,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12215,7 +12226,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12227,10 +12238,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12241,10 +12252,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12255,7 +12266,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>83</v>
@@ -12264,20 +12275,18 @@
         <v>83</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12326,16 +12335,16 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12347,10 +12356,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12361,10 +12370,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12375,7 +12384,7 @@
         <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>83</v>
@@ -12384,21 +12393,23 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>538</v>
+        <v>190</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12422,13 +12433,13 @@
         <v>83</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>83</v>
+        <v>517</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>83</v>
+        <v>518</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12446,13 +12457,13 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>83</v>
@@ -12464,13 +12475,13 @@
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>542</v>
+        <v>440</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12481,10 +12492,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12504,22 +12515,22 @@
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>478</v>
+        <v>190</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12544,13 +12555,13 @@
         <v>83</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>83</v>
+        <v>526</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>83</v>
+        <v>527</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -12568,7 +12579,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12586,13 +12597,13 @@
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>549</v>
+        <v>440</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12603,10 +12614,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12629,16 +12640,18 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>205</v>
+        <v>529</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>206</v>
+        <v>530</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>207</v>
+        <v>531</v>
       </c>
       <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -12686,7 +12699,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>208</v>
+        <v>528</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12698,7 +12711,7 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>83</v>
@@ -12710,7 +12723,7 @@
         <v>83</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>209</v>
+        <v>533</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12721,21 +12734,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>83</v>
@@ -12747,17 +12760,15 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>140</v>
+        <v>535</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -12806,19 +12817,19 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>215</v>
+        <v>534</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>83</v>
@@ -12827,10 +12838,10 @@
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>83</v>
+        <v>506</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12841,14 +12852,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12861,26 +12872,24 @@
         <v>83</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>139</v>
+        <v>539</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -12928,7 +12937,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12940,7 +12949,7 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>83</v>
@@ -12949,10 +12958,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>83</v>
+        <v>543</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>136</v>
+        <v>544</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -12963,10 +12972,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12974,10 +12983,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>83</v>
@@ -12989,20 +12998,18 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>190</v>
+        <v>546</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13026,13 +13033,13 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13050,13 +13057,13 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>83</v>
@@ -13068,16 +13075,16 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>557</v>
+        <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>313</v>
+        <v>543</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>314</v>
+        <v>550</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>83</v>
@@ -13085,10 +13092,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13099,7 +13106,7 @@
         <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>83</v>
@@ -13111,19 +13118,19 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>559</v>
+        <v>486</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>393</v>
+        <v>555</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13172,13 +13179,13 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
@@ -13190,27 +13197,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>563</v>
+        <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>396</v>
+        <v>556</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>397</v>
+        <v>557</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>398</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13233,20 +13240,16 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>565</v>
+        <v>206</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13270,13 +13273,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>406</v>
+        <v>83</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13294,7 +13297,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>564</v>
+        <v>208</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13303,10 +13306,10 @@
         <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -13315,10 +13318,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13329,14 +13332,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13355,20 +13358,18 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>569</v>
+        <v>140</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>570</v>
+        <v>212</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>83</v>
       </c>
@@ -13392,13 +13393,13 @@
         <v>83</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>83</v>
@@ -13416,7 +13417,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>568</v>
+        <v>215</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13428,37 +13429,37 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>418</v>
+        <v>83</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13471,25 +13472,25 @@
         <v>83</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>574</v>
+        <v>498</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>576</v>
+        <v>142</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>577</v>
+        <v>148</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>83</v>
@@ -13538,7 +13539,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>573</v>
+        <v>500</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13550,24 +13551,634 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AK94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP94" t="s" s="2">
+      <c r="AK95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>83</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="610">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T12:48:52+00:00</t>
+    <t>2023-06-03T13:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1058,6 +1058,105 @@
 </t>
   </si>
   <si>
+    <t>Observation.code.coding:infectious-agent</t>
+  </si>
+  <si>
+    <t>infectious-agent</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
+【JP Core仕様】
+同定菌名を表現する場合に使用する
+NeXEHRSで使用を定める標準コードに準じて、JANIS菌名コードを採用する</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Microbiology_InfectiousAgent_VS</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:infectious-agent.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:infectious-agent.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:infectious-agent.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Microbiology_InfectiousAgent_CS</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:infectious-agent.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:infectious-agent.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:infectious-agent.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:infectious-agent.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:antimicrobial-drug</t>
+  </si>
+  <si>
+    <t>antimicrobial-drug</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
+【JP Core仕様】
+抗菌薬コードを表現する場合に使用する
+NeXEHRSで使用を定める標準コードに準じて、JANIS抗菌薬コードを採用する</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Microbiology_AntiMicrobialDrug_VS</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:antimicrobial-drug.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:antimicrobial-drug.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:antimicrobial-drug.system</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Microbiology_AntiMicrobialDrug_CS</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:antimicrobial-drug.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:antimicrobial-drug.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:antimicrobial-drug.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:antimicrobial-drug.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.coding:jlac10</t>
   </si>
   <si>
@@ -1076,46 +1175,25 @@
     <t>Observation.code.coding:jlac10.id</t>
   </si>
   <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding:jlac10.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding:jlac10.system</t>
   </si>
   <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
     <t>urn:oid:1.2.392.200119.4.504</t>
   </si>
   <si>
     <t>Observation.code.coding:jlac10.version</t>
   </si>
   <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding:jlac10.code</t>
   </si>
   <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding:jlac10.display</t>
   </si>
   <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
     <t>Observation.code.coding:jlac10.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -2186,7 +2264,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP99"/>
+  <dimension ref="A1:AP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2220,7 +2298,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="105.8828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.09375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -9835,9 +9913,11 @@
         <v>353</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>83</v>
       </c>
@@ -9858,19 +9938,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -9895,13 +9975,11 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>83</v>
+        <v>356</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -9919,13 +9997,13 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
@@ -9940,10 +10018,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9954,10 +10032,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9977,23 +10055,19 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10041,7 +10115,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>354</v>
+        <v>208</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10053,22 +10127,22 @@
         <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10076,14 +10150,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10099,19 +10173,19 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>365</v>
+        <v>139</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>366</v>
+        <v>140</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10149,19 +10223,19 @@
         <v>83</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>364</v>
+        <v>215</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10173,7 +10247,7 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
@@ -10182,13 +10256,13 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>369</v>
+        <v>209</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>83</v>
@@ -10196,18 +10270,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>93</v>
@@ -10222,26 +10296,26 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>372</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>373</v>
+        <v>232</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>83</v>
@@ -10283,7 +10357,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>370</v>
+        <v>237</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10298,19 +10372,19 @@
         <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>379</v>
+        <v>239</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
@@ -10318,14 +10392,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>382</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10344,20 +10418,18 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>383</v>
+        <v>205</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
+        <v>242</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>385</v>
+        <v>243</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>83</v>
       </c>
@@ -10405,7 +10477,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10420,19 +10492,19 @@
         <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>388</v>
+        <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>389</v>
+        <v>246</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>390</v>
+        <v>247</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>83</v>
@@ -10440,10 +10512,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10466,18 +10538,18 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>393</v>
+        <v>113</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10525,7 +10597,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>392</v>
+        <v>254</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10546,13 +10618,13 @@
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>397</v>
+        <v>255</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>83</v>
@@ -10560,10 +10632,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10574,7 +10646,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10586,19 +10658,17 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>401</v>
+        <v>205</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>402</v>
+        <v>259</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>405</v>
+        <v>261</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10647,13 +10717,13 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>83</v>
@@ -10662,19 +10732,19 @@
         <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>406</v>
+        <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>407</v>
+        <v>263</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>408</v>
+        <v>264</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>409</v>
+        <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>83</v>
@@ -10682,10 +10752,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10708,19 +10778,19 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>411</v>
+        <v>267</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>412</v>
+        <v>268</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>412</v>
+        <v>269</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>413</v>
+        <v>270</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>414</v>
+        <v>271</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10769,7 +10839,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>410</v>
+        <v>272</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10778,7 +10848,7 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10787,29 +10857,31 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>418</v>
+        <v>274</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>419</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>83</v>
       </c>
@@ -10827,22 +10899,22 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>421</v>
+        <v>219</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>422</v>
+        <v>220</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>424</v>
+        <v>222</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10867,13 +10939,11 @@
         <v>83</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -10891,16 +10961,16 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>420</v>
+        <v>223</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>428</v>
+        <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -10912,10 +10982,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>429</v>
+        <v>225</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -10926,21 +10996,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>430</v>
+        <v>339</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
@@ -10952,20 +11022,16 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>432</v>
+        <v>206</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
@@ -10989,13 +11055,13 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
@@ -11013,49 +11079,49 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>430</v>
+        <v>208</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>438</v>
+        <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>440</v>
+        <v>209</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>442</v>
+        <v>341</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11074,20 +11140,18 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>443</v>
+        <v>139</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>212</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>83</v>
       </c>
@@ -11123,19 +11187,19 @@
         <v>83</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>442</v>
+        <v>215</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11147,7 +11211,7 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11156,10 +11220,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>83</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>209</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11170,10 +11234,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>371</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>450</v>
+        <v>343</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11181,7 +11245,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>93</v>
@@ -11193,27 +11257,29 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>451</v>
+        <v>232</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>451</v>
+        <v>233</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>83</v>
@@ -11231,13 +11297,13 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>454</v>
+        <v>83</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11255,7 +11321,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>450</v>
+        <v>237</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11273,27 +11339,27 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>455</v>
+        <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>456</v>
+        <v>238</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>457</v>
+        <v>239</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>459</v>
+        <v>373</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>459</v>
+        <v>346</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11313,23 +11379,21 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>460</v>
+        <v>242</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>460</v>
+        <v>243</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>83</v>
       </c>
@@ -11353,13 +11417,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>463</v>
+        <v>83</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>464</v>
+        <v>83</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -11377,7 +11441,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>459</v>
+        <v>245</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11398,10 +11462,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>465</v>
+        <v>246</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>466</v>
+        <v>247</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11412,10 +11476,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>467</v>
+        <v>374</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>467</v>
+        <v>348</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11435,21 +11499,21 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>468</v>
+        <v>113</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>469</v>
+        <v>250</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
       </c>
@@ -11497,7 +11561,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>467</v>
+        <v>254</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11515,27 +11579,27 @@
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>472</v>
+        <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>473</v>
+        <v>255</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>474</v>
+        <v>256</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>475</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>375</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11555,21 +11619,21 @@
         <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>477</v>
+        <v>205</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>478</v>
+        <v>259</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
       </c>
@@ -11617,7 +11681,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>476</v>
+        <v>262</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11635,27 +11699,27 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>481</v>
+        <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>482</v>
+        <v>263</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>483</v>
+        <v>264</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>484</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>376</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>485</v>
+        <v>352</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11666,7 +11730,7 @@
         <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>83</v>
@@ -11675,22 +11739,22 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>486</v>
+        <v>267</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>487</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>488</v>
+        <v>269</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>489</v>
+        <v>270</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>490</v>
+        <v>271</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11739,19 +11803,19 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>485</v>
+        <v>272</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>491</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
@@ -11760,10 +11824,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>492</v>
+        <v>273</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>493</v>
+        <v>274</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11774,10 +11838,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11797,19 +11861,23 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
       </c>
@@ -11857,7 +11925,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11869,7 +11937,7 @@
         <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
@@ -11878,10 +11946,10 @@
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -11892,21 +11960,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
@@ -11915,21 +11983,23 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>139</v>
+        <v>379</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -11977,34 +12047,34 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>209</v>
+        <v>386</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>83</v>
@@ -12012,14 +12082,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>388</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>496</v>
+        <v>388</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12032,26 +12102,24 @@
         <v>83</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>499</v>
+        <v>391</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12099,7 +12167,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>500</v>
+        <v>388</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12111,7 +12179,7 @@
         <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>83</v>
@@ -12120,13 +12188,13 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>136</v>
+        <v>393</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>83</v>
@@ -12134,14 +12202,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>501</v>
+        <v>394</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>501</v>
+        <v>394</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12157,19 +12225,23 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>502</v>
+        <v>396</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>503</v>
+        <v>397</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -12217,7 +12289,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>501</v>
+        <v>394</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12226,25 +12298,25 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>83</v>
@@ -12252,14 +12324,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12275,19 +12347,23 @@
         <v>83</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>408</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12335,7 +12411,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12344,25 +12420,25 @@
         <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>83</v>
@@ -12370,10 +12446,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12393,23 +12469,21 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>514</v>
+        <v>419</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12433,13 +12507,13 @@
         <v>83</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>517</v>
+        <v>83</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>518</v>
+        <v>83</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12457,7 +12531,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12475,16 +12549,16 @@
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>520</v>
+        <v>421</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>83</v>
+        <v>423</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>83</v>
@@ -12492,10 +12566,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>521</v>
+        <v>424</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>521</v>
+        <v>424</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12515,22 +12589,22 @@
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>190</v>
+        <v>425</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>522</v>
+        <v>426</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>524</v>
+        <v>428</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>525</v>
+        <v>429</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12555,13 +12629,13 @@
         <v>83</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>526</v>
+        <v>83</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>527</v>
+        <v>83</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -12579,7 +12653,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>521</v>
+        <v>424</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12594,19 +12668,19 @@
         <v>105</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>83</v>
+        <v>430</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>83</v>
+        <v>433</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>83</v>
@@ -12614,10 +12688,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>528</v>
+        <v>434</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>528</v>
+        <v>434</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12637,20 +12711,22 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>529</v>
+        <v>435</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>530</v>
+        <v>436</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O87" t="s" s="2">
-        <v>532</v>
+        <v>438</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -12699,7 +12775,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>528</v>
+        <v>434</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12708,7 +12784,7 @@
         <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>83</v>
+        <v>439</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>105</v>
@@ -12717,27 +12793,27 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>533</v>
+        <v>442</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12760,16 +12836,20 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -12793,13 +12873,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>83</v>
+        <v>451</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -12817,7 +12897,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12826,7 +12906,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -12838,10 +12918,10 @@
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>506</v>
+        <v>136</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>537</v>
+        <v>453</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12852,14 +12932,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>538</v>
+        <v>454</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>538</v>
+        <v>454</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12875,21 +12955,23 @@
         <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>539</v>
+        <v>190</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>540</v>
+        <v>456</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>541</v>
+        <v>457</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -12913,13 +12995,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>83</v>
+        <v>460</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -12937,7 +13019,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>538</v>
+        <v>454</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12955,27 +13037,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>543</v>
+        <v>463</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>544</v>
+        <v>464</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>83</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>545</v>
+        <v>466</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>545</v>
+        <v>466</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12995,21 +13077,23 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>546</v>
+        <v>467</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>547</v>
+        <v>468</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>548</v>
+        <v>469</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13057,7 +13141,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>545</v>
+        <v>466</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13078,10 +13162,10 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>543</v>
+        <v>472</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>550</v>
+        <v>473</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13092,10 +13176,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>551</v>
+        <v>474</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>551</v>
+        <v>474</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13106,7 +13190,7 @@
         <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>83</v>
@@ -13115,23 +13199,21 @@
         <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>486</v>
+        <v>190</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>553</v>
+        <v>475</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13155,13 +13237,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13179,13 +13261,13 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>551</v>
+        <v>474</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
@@ -13197,27 +13279,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>83</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>558</v>
+        <v>483</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>558</v>
+        <v>483</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13240,16 +13322,20 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>206</v>
+        <v>484</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13273,13 +13359,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>83</v>
+        <v>488</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13297,7 +13383,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>208</v>
+        <v>483</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13309,7 +13395,7 @@
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -13318,10 +13404,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>209</v>
+        <v>490</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13332,21 +13418,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>559</v>
+        <v>491</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>559</v>
+        <v>491</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>83</v>
@@ -13358,16 +13444,16 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>139</v>
+        <v>492</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>140</v>
+        <v>493</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>212</v>
+        <v>494</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>142</v>
+        <v>495</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13417,81 +13503,79 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>215</v>
+        <v>491</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>209</v>
+        <v>498</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>83</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>139</v>
+        <v>501</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>83</v>
       </c>
@@ -13545,39 +13629,39 @@
         <v>81</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>83</v>
+        <v>506</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>136</v>
+        <v>507</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>83</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13585,10 +13669,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>83</v>
@@ -13597,22 +13681,22 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>190</v>
+        <v>510</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13637,13 +13721,13 @@
         <v>83</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>83</v>
@@ -13661,34 +13745,34 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>105</v>
+        <v>515</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>565</v>
+        <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>326</v>
+        <v>517</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>83</v>
@@ -13696,10 +13780,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13719,23 +13803,19 @@
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>567</v>
+        <v>205</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>568</v>
+        <v>206</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>83</v>
       </c>
@@ -13783,7 +13863,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>566</v>
+        <v>208</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13795,44 +13875,44 @@
         <v>83</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>571</v>
+        <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>418</v>
+        <v>209</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>419</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>83</v>
@@ -13844,20 +13924,18 @@
         <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>573</v>
+        <v>140</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>574</v>
+        <v>212</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>83</v>
       </c>
@@ -13881,13 +13959,13 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>427</v>
+        <v>83</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -13905,19 +13983,19 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>572</v>
+        <v>215</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>428</v>
+        <v>83</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>83</v>
@@ -13926,10 +14004,10 @@
         <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>429</v>
+        <v>209</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -13940,14 +14018,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>431</v>
+        <v>521</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13960,25 +14038,25 @@
         <v>83</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>577</v>
+        <v>522</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>578</v>
+        <v>523</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>579</v>
+        <v>142</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>580</v>
+        <v>148</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14003,13 +14081,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14027,7 +14105,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14039,33 +14117,33 @@
         <v>83</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>438</v>
+        <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>440</v>
+        <v>136</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14076,7 +14154,7 @@
         <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>83</v>
@@ -14088,20 +14166,16 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>84</v>
+        <v>526</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>582</v>
+        <v>527</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>83</v>
       </c>
@@ -14149,16 +14223,16 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>83</v>
+        <v>529</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14170,15 +14244,1947 @@
         <v>83</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP112" t="s" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP114" t="s" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP115" t="s" s="2">
         <v>83</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T13:59:36+00:00</t>
+    <t>2023-06-05T14:57:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T14:57:47+00:00</t>
+    <t>2023-06-05T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T15:16:04+00:00</t>
+    <t>2023-06-06T02:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -521,8 +521,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP Core仕様】
-オーダ情報（ServiceRequestリソース）</t>
+【JP Core仕様】オーダ情報（ServiceRequestリソース）</t>
   </si>
   <si>
     <t>イベントの許可を追跡し、提案/勧告が行われたかどうかを追跡することができます。 / Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -621,8 +620,7 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP Core仕様】
-日本では適切なコード体系が存在しないため、独自のバリューセットを定義する
+【JP Core仕様】日本では適切なコード体系が存在しないため、独自のバリューセットを定義する
 JP CoreとしてはsimpleObservationコード体系を必須とし、他のローカルコード等を使用する場合はCategory要素の2つ目以降に設定する</t>
   </si>
   <si>
@@ -1049,8 +1047,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】
-[Slicing](http://hl7.org/fhir/profiling.html#slicing)を使用して複数のコード体系に対応
+【JP Core仕様】[Slicing](http://hl7.org/fhir/R4/profiling.html#slicing)を使用して複数のコード体系に対応
 基本方針としてカテゴリに応じた標準コードの使用を想定しているが、ローカルコードを使用してもよい</t>
   </si>
   <si>
@@ -1065,8 +1062,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】
-同定菌名を表現する場合に使用する
+【JP Core仕様】同定菌名を表現する場合に使用する
 NeXEHRSで使用を定める標準コードに準じて、JANIS菌名コードを採用する</t>
   </si>
   <si>
@@ -1091,7 +1087,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Microbiology_InfectiousAgent_CS</t>
+    <t>urn:oid:1.2.392.100495.10.3.100.5.27.4.1</t>
   </si>
   <si>
     <t>Observation.code.coding:infectious-agent.version</t>
@@ -1125,8 +1121,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】
-抗菌薬コードを表現する場合に使用する
+【JP Core仕様】抗菌薬コードを表現する場合に使用する
 NeXEHRSで使用を定める標準コードに準じて、JANIS抗菌薬コードを採用する</t>
   </si>
   <si>
@@ -1142,7 +1137,7 @@
     <t>Observation.code.coding:antimicrobial-drug.system</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Microbiology_AntiMicrobialDrug_CS</t>
+    <t>urn:oid:1.2.392.100495.10.3.100.5.11.5.0</t>
   </si>
   <si>
     <t>Observation.code.coding:antimicrobial-drug.version</t>
@@ -1164,8 +1159,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】
-塗抹結果、培養・同定結果を表現する場合に使用する
+【JP Core仕様】塗抹結果、培養・同定結果を表現する場合に使用する
 JLAC10コードを採用する</t>
   </si>
   <si>
@@ -1213,8 +1207,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP Core仕様】
-患者（Patientリソース）</t>
+【JP Core仕様】患者（Patientリソース）</t>
   </si>
   <si>
     <t>あなたが彼らが誰または何をしているのかわからない場合、観察には価値がありません。 / Observations have no value if you don't know who or what they're about.</t>
@@ -1306,8 +1299,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP Core仕様】
-検体採取日</t>
+【JP Core仕様】検体採取日</t>
   </si>
   <si>
     <t>観察が真実と見なされた時期を知ることは、その関連性にとって重要であり、傾向を決定します。 / Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1394,8 +1386,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP Core仕様】
-valueQuantity：同定検査の菌量（定量）、薬剤感受性結果（MIC値）を表現する場合に使用する想定
+【JP Core仕様】valueQuantity：同定検査の菌量（定量）、薬剤感受性結果（MIC値）を表現する場合に使用する想定
 valueCodeableConcept：同定検査の菌種を表現する場合に使用する想定
 valueString：塗抹結果、培養検査の週数・菌量を表現する場合に使用する想定</t>
   </si>
@@ -1466,8 +1457,7 @@
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
-【JP Core仕様】
-薬剤感受性結果（判定）を表現する場合に使用する想定</t>
+【JP Core仕様】薬剤感受性結果（判定）を表現する場合に使用する想定</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.
@@ -1819,8 +1809,7 @@
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP Core仕様】
-本リソースの子となるObservationリソース</t>
+【JP Core仕様】本リソースの子となるObservationリソース</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T02:57:59+00:00</t>
+    <t>2023-06-06T05:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T05:11:19+00:00</t>
+    <t>2023-06-08T10:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationリソースの一意な識別ID。</t>
+    <t>このObservationリソースの一意な識別ID</t>
   </si>
   <si>
     <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
@@ -517,7 +517,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -547,10 +547,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -569,10 +569,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>結果の状態。【詳細参照】</t>
-  </si>
-  <si>
-    <t>結果の状態。</t>
+    <t>結果の状態【詳細参照】</t>
+  </si>
+  <si>
+    <t>結果の状態</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
@@ -613,10 +613,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationを分類するコード。</t>
+    <t>このObservationを分類するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationを分類するコード</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
@@ -997,10 +997,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの対象を特定するコード。</t>
+    <t>このObservationの対象を特定するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
@@ -1200,10 +1200,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
@@ -1232,10 +1232,10 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
@@ -1256,10 +1256,10 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -1292,10 +1292,10 @@
 Period</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
-  </si>
-  <si>
-    <t>取得された結果が臨床的に確定された日時または期間。</t>
+    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
+  </si>
+  <si>
+    <t>取得された結果が臨床的に確定された日時または期間</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
@@ -1324,10 +1324,10 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
@@ -1350,10 +1350,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの責任者/実施者に関する情報。</t>
+    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -1382,7 +1382,7 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>取得された結果。</t>
+    <t>取得された結果</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
@@ -1413,10 +1413,10 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
@@ -1450,10 +1450,10 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価。【詳細参照】</t>
-  </si>
-  <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価。</t>
+    <t>高、低、正常等の結果のカテゴリ分けした評価【詳細参照】</t>
+  </si>
+  <si>
+    <t>高、低、正常等の結果のカテゴリ分けした評価</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
@@ -1489,10 +1489,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関するコメント。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに関するコメント。</t>
+    <t>このObservationに関するコメント【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関するコメント</t>
   </si>
   <si>
     <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
@@ -1512,7 +1512,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>対象となった身体部位。</t>
+    <t>対象となった身体部位</t>
   </si>
   <si>
     <t>観察結果で見つかったコードで暗黙的ではない場合にのみ使用されます。多くのシステムでは、これはインラインコンポーネントの代わりに関連する観察として表される場合があります。
@@ -1541,7 +1541,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>このObservationの実施方法。</t>
+    <t>このObservationの実施方法</t>
   </si>
   <si>
     <t>CODERATION.CODEのコードに暗黙的ではない場合にのみ使用されます。 / Only used if not implicit in code for Observation.code.</t>
@@ -1569,10 +1569,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに使われた検体/標本に関する情報。</t>
+    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
@@ -1598,10 +1598,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
@@ -1627,10 +1627,10 @@
 </t>
   </si>
   <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
+  </si>
+  <si>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
@@ -1802,10 +1802,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1825,10 +1825,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
@@ -1841,10 +1841,10 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
-  </si>
-  <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
+  </si>
+  <si>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
@@ -11960,7 +11960,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>93</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:48:25+00:00</t>
+    <t>2023-06-11T03:29:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationリソースの一意な識別ID</t>
+    <t>当該検査項目に対し施設内で割り振られる一意の識別子があればこれを使用する</t>
   </si>
   <si>
     <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
@@ -517,7 +517,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが実施されることになった依頼や計画、提案に関する情報</t>
+    <t>このObservationが実施されることになった依頼や計画／提案に関する情報、オーダ情報（ServiceRequest）</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -547,10 +547,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
+    <t>このObservationが親イベントの一部を成す要素であるときこの親イベントに関する情報、未使用</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -619,8 +616,7 @@
     <t>このObservationを分類するコード</t>
   </si>
   <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP Core仕様】日本では適切なコード体系が存在しないため、独自のバリューセットを定義する
+    <t>【JP Core仕様】日本では適切なコード体系が存在しないため、独自のバリューセットを定義する
 JP CoreとしてはsimpleObservationコード体系を必須とし、他のローカルコード等を使用する場合はCategory要素の2つ目以降に設定する</t>
   </si>
   <si>
@@ -649,6 +645,9 @@
     <t>microbiology</t>
   </si>
   <si>
+    <t>このObservationに関する分類（JP_SimpleObservationCategory_VS）、必須項目</t>
+  </si>
+  <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.  
 必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
@@ -906,6 +905,9 @@
     <t>loinc</t>
   </si>
   <si>
+    <t>このObservationに関するLOINC上の分類、任意項目</t>
+  </si>
+  <si>
     <t>Observation.category:loinc.id</t>
   </si>
   <si>
@@ -949,6 +951,9 @@
   </si>
   <si>
     <t>microbiologyCategory</t>
+  </si>
+  <si>
+    <t>このObservationに関する詳細分類、JP_MicrobiologyCategory_VSより選択する、任意項目</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MicrobiologyCategory_VS</t>
@@ -1046,8 +1051,7 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】[Slicing](http://hl7.org/fhir/R4/profiling.html#slicing)を使用して複数のコード体系に対応
+    <t>【JP Core仕様】[Slicing](http://hl7.org/fhir/R4/profiling.html#slicing)を使用して複数のコード体系に対応
 基本方針としてカテゴリに応じた標準コードの使用を想定しているが、ローカルコードを使用してもよい</t>
   </si>
   <si>
@@ -1061,8 +1065,13 @@
     <t>infectious-agent</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】同定菌名を表現する場合に使用する
+    <t>同定菌名を表現する場合に使用するコード、JANIS菌名コードを利用【詳細参照】</t>
+  </si>
+  <si>
+    <t>同定菌名を表現する場合に使用するコード、JANIS菌名コードを利用</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】同定菌名を表現する場合に使用する
 NeXEHRSで使用を定める標準コードに準じて、JANIS菌名コードを採用する</t>
   </si>
   <si>
@@ -1120,8 +1129,13 @@
     <t>antimicrobial-drug</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】抗菌薬コードを表現する場合に使用する
+    <t>抗菌薬コードを表現する場合に使用するコード、JANIS抗菌薬コードを利用【詳細参照】</t>
+  </si>
+  <si>
+    <t>抗菌薬コードを表現する場合に使用するコード、JANIS抗菌薬コードを利用</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】抗菌薬コードを表現する場合に使用する
 NeXEHRSで使用を定める標準コードに準じて、JANIS抗菌薬コードを採用する</t>
   </si>
   <si>
@@ -1158,8 +1172,13 @@
     <t>jlac10</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP Core仕様】塗抹結果、培養・同定結果を表現する場合に使用する
+    <t>塗抹結果、培養・同定結果を表現する場合に使用するコード、JLAC10を利用【詳細参照】</t>
+  </si>
+  <si>
+    <t>塗抹結果、培養・同定結果を表現する場合に使用するコード、JLAC10を利用</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】塗抹結果、培養・同定結果を表現する場合に使用する
 JLAC10コードを採用する</t>
   </si>
   <si>
@@ -1207,7 +1226,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP Core仕様】患者（Patientリソース）</t>
+この要素は1..1のcardinalityになるはずと考えられる。この要素が欠損値になる唯一の状況は、対象患者が不明なデバイスによって観察が行われるケースである。この場合、観察は何らかのコンテキスト/チャネルマッチング技術を介して患者にマッチングされる必要があり、患者にマッチングされれば、その時点で本要素を更新する必要がある。</t>
   </si>
   <si>
     <t>あなたが彼らが誰または何をしているのかわからない場合、観察には価値がありません。 / Observations have no value if you don't know who or what they're about.</t>
@@ -1292,14 +1311,10 @@
 Period</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
-  </si>
-  <si>
-    <t>取得された結果が臨床的に確定された日時または期間</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP Core仕様】検体採取日</t>
+    <t>取得された結果が臨床的に確定された日時、検体採取日</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】検体採取日</t>
   </si>
   <si>
     <t>観察が真実と見なされた時期を知ることは、その関連性にとって重要であり、傾向を決定します。 / Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1382,11 +1397,13 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>取得された結果</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP Core仕様】valueQuantity：同定検査の菌量（定量）、薬剤感受性結果（MIC値）を表現する場合に使用する想定
+    <t>検査によって得られた値を格納する【詳細参照】</t>
+  </si>
+  <si>
+    <t>検査によって得られた値を格納する</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】valueQuantity：同定検査の菌量（定量）、薬剤感受性結果（MIC値）を表現する場合に使用する想定
 valueCodeableConcept：同定検査の菌種を表現する場合に使用する想定
 valueString：塗抹結果、培養検査の週数・菌量を表現する場合に使用する想定</t>
   </si>
@@ -1450,14 +1467,13 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価【詳細参照】</t>
-  </si>
-  <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
-【JP Core仕様】薬剤感受性結果（判定）を表現する場合に使用する想定</t>
+    <t>高、低、正常、High、low、 normal等、薬剤感受性結果（判定）を表現する場合に使用【詳細参照】</t>
+  </si>
+  <si>
+    <t>高、低、正常、High、low、 normal等、薬剤感受性結果（判定）を表現する場合に使用</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】薬剤感受性結果（判定）を表現する場合に使用する想定</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.
@@ -1809,7 +1825,7 @@
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP Core仕様】本リソースの子となるObservationリソース</t>
+この要素を使用する場合、observationには通常、値または関連するリソースのセットのいじれかを含む。その両方を含む場合もある。複数のobservationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照せよ。システムは、[QuestionnaireResponse]（questionnaireresponse.html）からの結果を計算して最終スコアにし、そのスコアをobservationとして表す場合があることに注意。</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -3789,10 +3805,10 @@
         <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3857,16 +3873,16 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3877,10 +3893,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3906,16 +3922,16 @@
         <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3940,14 +3956,14 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
       </c>
@@ -3964,7 +3980,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>93</v>
@@ -3979,19 +3995,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
@@ -3999,10 +4015,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4025,19 +4041,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -4066,23 +4082,23 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -4106,10 +4122,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -4117,13 +4133,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -4145,19 +4161,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -4182,11 +4198,11 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -4204,7 +4220,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4228,10 +4244,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -4439,7 +4455,7 @@
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>215</v>
@@ -4799,7 +4815,7 @@
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>215</v>
@@ -5566,7 +5582,7 @@
         <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>285</v>
@@ -5591,19 +5607,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>202</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5632,7 +5648,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5650,7 +5666,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5674,10 +5690,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5685,7 +5701,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>204</v>
@@ -5803,7 +5819,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>211</v>
@@ -5885,7 +5901,7 @@
         <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>215</v>
@@ -5923,7 +5939,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>217</v>
@@ -6045,7 +6061,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>227</v>
@@ -6163,7 +6179,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>229</v>
@@ -6245,7 +6261,7 @@
         <v>83</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>215</v>
@@ -6283,7 +6299,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>231</v>
@@ -6328,7 +6344,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6405,7 +6421,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>241</v>
@@ -6525,7 +6541,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>249</v>
@@ -6568,7 +6584,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>83</v>
@@ -6645,7 +6661,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>258</v>
@@ -6765,7 +6781,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>266</v>
@@ -6887,7 +6903,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>276</v>
@@ -7009,13 +7025,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>83</v>
@@ -7037,19 +7053,19 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>202</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -7074,11 +7090,11 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -7096,7 +7112,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7120,10 +7136,10 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
@@ -7131,7 +7147,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>204</v>
@@ -7249,7 +7265,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>211</v>
@@ -7331,7 +7347,7 @@
         <v>83</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>215</v>
@@ -7369,7 +7385,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>217</v>
@@ -7491,7 +7507,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>227</v>
@@ -7609,7 +7625,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>229</v>
@@ -7691,7 +7707,7 @@
         <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>215</v>
@@ -7729,7 +7745,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>231</v>
@@ -7774,7 +7790,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>83</v>
@@ -7851,7 +7867,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>241</v>
@@ -7971,7 +7987,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>249</v>
@@ -8091,7 +8107,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>258</v>
@@ -8211,7 +8227,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>266</v>
@@ -8333,7 +8349,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>276</v>
@@ -8455,14 +8471,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8481,19 +8497,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8518,13 +8534,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8542,7 +8558,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>93</v>
@@ -8557,30 +8573,30 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8695,10 +8711,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8777,7 +8793,7 @@
         <v>83</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>215</v>
@@ -8815,10 +8831,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8844,13 +8860,13 @@
         <v>218</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>222</v>
@@ -8890,14 +8906,14 @@
         <v>83</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>223</v>
@@ -8935,13 +8951,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>83</v>
@@ -8966,13 +8982,13 @@
         <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>222</v>
@@ -9000,11 +9016,11 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -9057,10 +9073,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9175,10 +9191,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9257,7 +9273,7 @@
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>215</v>
@@ -9295,10 +9311,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9340,7 +9356,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>83</v>
@@ -9417,10 +9433,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9537,10 +9553,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9657,10 +9673,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9777,10 +9793,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9899,13 +9915,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>83</v>
@@ -9930,13 +9946,13 @@
         <v>218</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>219</v>
+        <v>359</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>222</v>
@@ -9964,11 +9980,11 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -10021,10 +10037,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10139,10 +10155,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10221,7 +10237,7 @@
         <v>83</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>215</v>
@@ -10259,10 +10275,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10304,7 +10320,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>83</v>
@@ -10381,10 +10397,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10501,10 +10517,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10621,10 +10637,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10741,10 +10757,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10863,13 +10879,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>83</v>
@@ -10894,13 +10910,13 @@
         <v>218</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>219</v>
+        <v>373</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>220</v>
+        <v>374</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>222</v>
@@ -10928,11 +10944,11 @@
         <v>83</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -10985,10 +11001,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11103,10 +11119,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11185,7 +11201,7 @@
         <v>83</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>215</v>
@@ -11223,10 +11239,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11268,7 +11284,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>83</v>
@@ -11345,10 +11361,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11465,10 +11481,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11585,10 +11601,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11705,10 +11721,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11827,10 +11843,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11949,10 +11965,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11975,19 +11991,19 @@
         <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12036,7 +12052,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12051,19 +12067,19 @@
         <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>83</v>
@@ -12071,10 +12087,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12097,16 +12113,16 @@
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12156,7 +12172,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12177,13 +12193,13 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>83</v>
@@ -12191,14 +12207,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12217,19 +12233,19 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12278,7 +12294,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12293,19 +12309,19 @@
         <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>83</v>
@@ -12313,14 +12329,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12339,19 +12355,19 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12400,7 +12416,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12415,19 +12431,19 @@
         <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>83</v>
@@ -12435,10 +12451,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12461,16 +12477,16 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12520,7 +12536,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12541,13 +12557,13 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>83</v>
@@ -12555,10 +12571,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12581,19 +12597,19 @@
         <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12642,7 +12658,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12657,19 +12673,19 @@
         <v>105</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>83</v>
@@ -12677,10 +12693,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12703,19 +12719,19 @@
         <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -12764,7 +12780,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12773,7 +12789,7 @@
         <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>105</v>
@@ -12782,27 +12798,27 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12825,19 +12841,19 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -12862,13 +12878,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -12886,7 +12902,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12895,7 +12911,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -12910,7 +12926,7 @@
         <v>136</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12921,14 +12937,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12947,19 +12963,19 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -12984,13 +13000,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13008,7 +13024,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13026,27 +13042,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13069,19 +13085,19 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13130,7 +13146,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13151,10 +13167,10 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13165,10 +13181,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13191,16 +13207,16 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13226,13 +13242,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13250,7 +13266,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13268,27 +13284,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13311,19 +13327,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13348,13 +13364,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13372,7 +13388,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13393,10 +13409,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13407,10 +13423,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13433,16 +13449,16 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13492,7 +13508,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13510,27 +13526,27 @@
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13553,16 +13569,16 @@
         <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13612,7 +13628,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13630,27 +13646,27 @@
         <v>83</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13673,19 +13689,19 @@
         <v>83</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13734,7 +13750,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13746,7 +13762,7 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
@@ -13755,10 +13771,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -13769,10 +13785,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13887,10 +13903,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14007,14 +14023,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14036,10 +14052,10 @@
         <v>139</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>142</v>
@@ -14094,7 +14110,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14129,10 +14145,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14155,13 +14171,13 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14212,7 +14228,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14221,7 +14237,7 @@
         <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14233,10 +14249,10 @@
         <v>83</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14247,10 +14263,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14273,13 +14289,13 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14330,7 +14346,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14339,7 +14355,7 @@
         <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>105</v>
@@ -14351,10 +14367,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14365,10 +14381,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14391,19 +14407,19 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>83</v>
@@ -14431,10 +14447,10 @@
         <v>117</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>83</v>
@@ -14452,7 +14468,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14470,13 +14486,13 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14487,10 +14503,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14513,19 +14529,19 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>83</v>
@@ -14550,13 +14566,13 @@
         <v>83</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>83</v>
@@ -14574,7 +14590,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14592,13 +14608,13 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14609,10 +14625,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14635,17 +14651,17 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14694,7 +14710,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14718,7 +14734,7 @@
         <v>83</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14729,10 +14745,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14758,10 +14774,10 @@
         <v>205</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14812,7 +14828,7 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14833,10 +14849,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -14847,10 +14863,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14873,16 +14889,16 @@
         <v>94</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14932,7 +14948,7 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
@@ -14953,10 +14969,10 @@
         <v>83</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
@@ -14967,10 +14983,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14993,16 +15009,16 @@
         <v>94</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15052,7 +15068,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15073,10 +15089,10 @@
         <v>83</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15087,10 +15103,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15113,19 +15129,19 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>83</v>
@@ -15174,7 +15190,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15195,10 +15211,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15209,10 +15225,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15327,10 +15343,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15447,14 +15463,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15476,10 +15492,10 @@
         <v>139</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>142</v>
@@ -15534,7 +15550,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15569,10 +15585,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15595,19 +15611,19 @@
         <v>94</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15632,13 +15648,13 @@
         <v>83</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>83</v>
@@ -15656,7 +15672,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>93</v>
@@ -15674,16 +15690,16 @@
         <v>83</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>83</v>
@@ -15691,10 +15707,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15717,19 +15733,19 @@
         <v>94</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -15778,7 +15794,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15796,27 +15812,27 @@
         <v>83</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15839,19 +15855,19 @@
         <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>83</v>
@@ -15876,13 +15892,13 @@
         <v>83</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
@@ -15900,7 +15916,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -15909,7 +15925,7 @@
         <v>93</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -15924,7 +15940,7 @@
         <v>136</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -15935,14 +15951,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15961,19 +15977,19 @@
         <v>83</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -15998,13 +16014,13 @@
         <v>83</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>83</v>
@@ -16022,7 +16038,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16040,27 +16056,27 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16086,16 +16102,16 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16144,7 +16160,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16165,10 +16181,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T03:29:39+00:00</t>
+    <t>2023-06-11T04:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T04:14:44+00:00</t>
+    <t>2023-06-11T04:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T04:29:08+00:00</t>
+    <t>2023-06-11T06:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T06:47:38+00:00</t>
+    <t>2023-06-11T07:42:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T07:42:04+00:00</t>
+    <t>2023-06-11T08:31:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T08:31:41+00:00</t>
+    <t>2023-06-11T09:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T09:44:02+00:00</t>
+    <t>2023-06-11T10:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
